--- a/Prod Excel.xlsx
+++ b/Prod Excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Custodian Name</t>
   </si>
@@ -104,6 +104,51 @@
   </si>
   <si>
     <t>State Street</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>05/13/2019</t>
+  </si>
+  <si>
+    <t>5/11/2019</t>
+  </si>
+  <si>
+    <t>13-May-2019</t>
+  </si>
+  <si>
+    <t>20190513</t>
+  </si>
+  <si>
+    <t>05-13-2019</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>May 13, 2019</t>
+  </si>
+  <si>
+    <t>5/13/2019</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>13/05/2019</t>
+  </si>
+  <si>
+    <t>13-May-19</t>
+  </si>
+  <si>
+    <t>13 May 2019 to 13 May 2019</t>
+  </si>
+  <si>
+    <t>14/05/19</t>
+  </si>
+  <si>
+    <t>14-May-19</t>
   </si>
 </sst>
 </file>
@@ -111,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -159,17 +204,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,7 +216,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -491,280 +527,282 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8">
-        <v>43556</v>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
-        <v>43556</v>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8">
-        <v>43556</v>
+      <c r="H3" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="8">
-        <v>43556</v>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8">
-        <v>43556</v>
+      <c r="H5" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="8">
-        <v>43556</v>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="8">
-        <v>43556</v>
+      <c r="H7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="8">
-        <v>43556</v>
+      <c r="H8" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8">
-        <v>43556</v>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="8">
-        <v>43556</v>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
-        <v>43556</v>
+      <c r="H11" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="8">
-        <v>43556</v>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="8">
-        <v>43556</v>
+      <c r="H13" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="8">
-        <v>43556</v>
+      <c r="H14" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="8">
-        <v>43556</v>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="8">
-        <v>43556</v>
+      <c r="H16" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="8">
-        <v>43556</v>
+      <c r="H17" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="8">
-        <v>43556</v>
+      <c r="H18" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="8">
-        <v>43556</v>
+      <c r="H19" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="8">
-        <v>43556</v>
+      <c r="H20" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="8">
-        <v>43556</v>
+      <c r="H21" s="4">
+        <v>43598</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="8">
-        <v>43556</v>
+      <c r="H22" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="8">
-        <v>43556</v>
+      <c r="H23" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="8">
-        <v>43556</v>
+      <c r="H24" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="8">
-        <v>43556</v>
+      <c r="H25" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H26" s="8">
-        <v>43556</v>
+      <c r="H26" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="8">
-        <v>43556</v>
+      <c r="H27" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="8">
-        <v>43556</v>
+      <c r="H28" s="4">
+        <v>43599</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="8">
-        <v>43556</v>
+      <c r="H29" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="8">
-        <v>43556</v>
+      <c r="H30" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H31" s="2"/>
+      <c r="H31" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="H34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="H35" s="1"/>
+      <c r="A35" s="4"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="H36" s="1"/>
+      <c r="A36" s="4"/>
+      <c r="H36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
